--- a/branches/hiv-test-date_fig-20/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:42:24+00:00</t>
+    <t>2023-02-10T06:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:43:03+00:00</t>
+    <t>2023-02-10T07:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is to record the Date when HIV was done for a patient</t>
+    <t>This profile is to record the Date when HIV test was done for a patient</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/hiv-test-date_fig-20/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:04+00:00</t>
+    <t>2023-02-10T07:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:43+00:00</t>
+    <t>2023-02-10T13:48:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -655,7 +655,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-vl-result-code</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-hiv-test-done</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1768,7 +1768,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.60546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.21484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/hiv-test-date_fig-20/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:48:02+00:00</t>
+    <t>2023-02-10T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:53:42+00:00</t>
+    <t>2023-02-10T13:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
